--- a/Material intensities/mat_per_rail_type.xlsx
+++ b/Material intensities/mat_per_rail_type.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Infrastructure\Output\5. Material intensities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Material intensities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44545409-BC32-45A1-8E42-8545F57F025D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AB6D5B-E0B2-41DF-B7B4-458E242F221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="160" windowWidth="14410" windowHeight="13600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Material_intensities" sheetId="2" r:id="rId1"/>
+    <sheet name="Final_input" sheetId="2" r:id="rId1"/>
     <sheet name="Literature sources" sheetId="4" r:id="rId2"/>
     <sheet name="OKO-institut" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -555,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -606,9 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -893,23 +890,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348F392C-04B2-4810-B980-05F198A81C03}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -935,7 +932,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -954,7 +951,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -978,7 +975,7 @@
         <v>3242857.1428571427</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1004,7 +1001,7 @@
         <v>110267368.42105262</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1023,7 +1020,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1039,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>3365.8694</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1111,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>43</v>
       </c>
@@ -1128,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -1146,7 +1143,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>61</v>
       </c>
@@ -1163,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1181,117 +1178,117 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1306,13 +1303,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9480F6-61B6-4C35-9586-885AC027F560}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1350,7 +1347,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1406,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -1472,7 +1469,7 @@
         <v>11755.761931999999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1536,7 +1533,7 @@
         <v>184.17394925000002</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -1600,7 +1597,7 @@
         <v>338.25288571999999</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1660,7 +1657,7 @@
         <v>5.0013527124999992</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1702,7 +1699,7 @@
         <v>106.875</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1752,7 +1749,7 @@
         <v>11.114999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>5.0787388</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1828,7 +1825,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>40</v>
       </c>
@@ -1866,7 +1863,7 @@
         <v>1.4750000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>43</v>
       </c>
@@ -1904,7 +1901,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>54</v>
       </c>
@@ -1933,7 +1930,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -1962,7 +1959,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>57</v>
       </c>
@@ -1991,7 +1988,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -2030,39 +2027,39 @@
         <v>12410833.858482501</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>97</v>
       </c>
@@ -2087,9 +2084,9 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2130,7 +2127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2184,7 +2181,7 @@
         <v>11755.761931999999</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2238,7 +2235,7 @@
         <v>184.17394925000002</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2295,7 +2292,7 @@
         <v>338.25288571999999</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2352,7 +2349,7 @@
         <v>5.0013527124999992</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2409,7 +2406,7 @@
         <v>106.875</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2466,7 +2463,7 @@
         <v>11.114999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2519,7 +2516,7 @@
         <v>5.0787388</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2572,7 +2569,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2625,7 +2622,7 @@
         <v>1.4750000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2678,7 +2675,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2720,7 +2717,7 @@
         <v>0.42601450000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2762,7 +2759,7 @@
         <v>3051.0717450000002</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2804,7 +2801,7 @@
         <v>118.9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2846,7 +2843,7 @@
         <v>9.1260145000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2888,7 +2885,7 @@
         <v>0.42601450000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -2930,7 +2927,7 @@
         <v>2388.9790050000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2949,7 +2946,7 @@
         <v>11755.761931999999</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2968,7 +2965,7 @@
         <v>156.79158695000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2987,7 +2984,7 @@
         <v>234.65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3006,7 +3003,7 @@
         <v>1.1736576124999998</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3025,7 +3022,7 @@
         <v>106.875</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3044,7 +3041,7 @@
         <v>11.114999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -3052,7 +3049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -3066,7 +3063,7 @@
         <v>31.633333333333333</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -3080,7 +3077,7 @@
         <v>4.2233333333333345</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3094,7 +3091,7 @@
         <v>82.24666666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -3102,7 +3099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3116,7 +3113,7 @@
         <v>42.410526315789468</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -3130,7 +3127,7 @@
         <v>110.26736842105262</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -3144,12 +3141,12 @@
         <v>3.2428571428571429</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>28</v>
       </c>
@@ -3163,7 +3160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -3188,7 +3185,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3213,7 +3210,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -3235,7 +3232,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3257,7 +3254,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -3279,7 +3276,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -3301,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3323,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3345,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3367,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -3389,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3411,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3436,7 +3433,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -3461,7 +3458,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3486,7 +3483,7 @@
         <v>1.4750000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -3525,7 +3522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -3550,7 +3547,7 @@
         <v>0.38357969999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3575,7 +3572,7 @@
         <v>0.73236230000000013</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -3600,7 +3597,7 @@
         <v>2.2711373500000001</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -3625,7 +3622,7 @@
         <v>3.7876950999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -3650,7 +3647,7 @@
         <v>45.655578500000004</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>1.3926014500000001</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -3700,7 +3697,7 @@
         <v>0.94260144999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -3718,7 +3715,7 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -3736,7 +3733,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -3754,7 +3751,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3772,7 +3769,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -3791,7 +3788,7 @@
         <v>5.0787388</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -3810,7 +3807,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -3829,7 +3826,7 @@
         <v>103.60288572000002</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -3848,7 +3845,7 @@
         <v>27.3823623</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>1.4750000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -3905,7 +3902,7 @@
         <v>3.8276950999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>68</v>
       </c>
@@ -3916,7 +3913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -3930,7 +3927,7 @@
         <v>25075</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>19</v>
       </c>
@@ -3941,7 +3938,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>71</v>
       </c>
@@ -3955,7 +3952,7 @@
         <v>10423</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>19</v>
       </c>
@@ -3966,7 +3963,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>72</v>
       </c>
@@ -3980,7 +3977,7 @@
         <v>5358</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>19</v>
       </c>
@@ -3991,7 +3988,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>73</v>
       </c>
@@ -4005,7 +4002,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>19</v>
       </c>

--- a/Material intensities/mat_per_rail_type.xlsx
+++ b/Material intensities/mat_per_rail_type.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Material intensities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\TRIPI-GH-v100\Material intensities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AB6D5B-E0B2-41DF-B7B4-458E242F221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{017B5739-7909-4671-A658-75A1B38C9AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Final_input" sheetId="2" r:id="rId1"/>
-    <sheet name="Literature sources" sheetId="4" r:id="rId2"/>
-    <sheet name="OKO-institut" sheetId="5" r:id="rId3"/>
+    <sheet name="Coversheet" sheetId="6" r:id="rId1"/>
+    <sheet name="Final_input" sheetId="2" r:id="rId2"/>
+    <sheet name="Literature sources" sheetId="4" r:id="rId3"/>
+    <sheet name="OKO-institut - raw" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="114">
   <si>
     <t>steel</t>
   </si>
@@ -382,12 +383,70 @@
   <si>
     <t>References</t>
   </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking.</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircoMod – Circular Economy Modelling for Climate Change Mitigation 101056868 </t>
+  </si>
+  <si>
+    <t>Content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Engelenburg, M., Deetman, S., Fishman, T., Behrens, P., &amp; van der Voet, E. (2024). TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In review</t>
+    </r>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Martijn van Engelenburg</t>
+  </si>
+  <si>
+    <t>m.van.engelenburg@cml.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>Material intensities of rail infrastructure v.1.0.0</t>
+  </si>
+  <si>
+    <t>Raw extracted data</t>
+  </si>
+  <si>
+    <t>Final assumed amount OKO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +514,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -470,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -550,12 +620,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -607,10 +759,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="2" xr:uid="{3BBD50EE-9A41-4837-93BA-BB624BA6E30D}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2 2" xfId="3" xr:uid="{0CD9E7AD-C988-4D75-9BAB-51DBF1ADC634}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -623,6 +796,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83664B3A-2D54-44D3-95A7-13660ACCF5D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="190501"/>
+          <a:ext cx="3091139" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CircoMod – Circular Economy Modelling for Climate Change Mitigation –  iamconsortium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0E4049-1850-4E8E-99A5-67922D608FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686175" y="190500"/>
+          <a:ext cx="2600325" cy="1715303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -887,11 +1187,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AA12B3-530C-4A99-8F2F-921EE096EC09}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B12:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{BA83082A-30C7-48E9-B25F-1F18A85EACBD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348F392C-04B2-4810-B980-05F198A81C03}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,12 +1689,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9480F6-61B6-4C35-9586-885AC027F560}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,1944 +2466,2631 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F0778E-BA4C-4C94-BA4E-44D3526A3F9A}">
-  <dimension ref="A1:S87"/>
+  <dimension ref="B1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="Q1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="26"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T2" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E2">
+      <c r="F3" s="28">
         <v>7392</v>
       </c>
-      <c r="F2">
+      <c r="G3" s="28">
         <v>12320</v>
       </c>
-      <c r="G2">
-        <f>F2/2</f>
+      <c r="H3" s="28">
+        <f>G3/2</f>
         <v>6160</v>
       </c>
-      <c r="H2">
-        <f>E2*0.47971+G2*0.52029</f>
+      <c r="I3" s="28">
+        <f>F3*0.47971+H3*0.52029</f>
         <v>6751.0027200000004</v>
       </c>
-      <c r="J2">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28">
         <v>9632</v>
       </c>
-      <c r="K2">
+      <c r="L3" s="28">
         <v>14896</v>
       </c>
-      <c r="L2">
-        <f>K2/2</f>
+      <c r="M3" s="28">
+        <f>L3/2</f>
         <v>7448</v>
       </c>
-      <c r="M2">
-        <f>J2*0.47971+L2*0.52029</f>
+      <c r="N3" s="29">
+        <f>K3*0.47971+M3*0.52029</f>
         <v>8495.6866399999999</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q3" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="Q2">
-        <f>H19</f>
+      <c r="R3" s="28">
+        <f>I20</f>
         <v>10011.078012</v>
       </c>
-      <c r="R2">
-        <f>Q2</f>
+      <c r="S3" s="28">
+        <f>R3</f>
         <v>10011.078012</v>
       </c>
-      <c r="S2">
-        <f>M19</f>
+      <c r="T3" s="29">
+        <f>N20</f>
         <v>11755.761931999999</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E3">
+      <c r="F4" s="28">
         <v>120.68</v>
       </c>
-      <c r="F3">
+      <c r="G4" s="28">
         <v>241.36</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G17" si="0">F3/2</f>
+      <c r="H4" s="28">
+        <f t="shared" ref="H4:H18" si="0">G4/2</f>
         <v>120.68</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H17" si="1">E3*0.47971+G3*0.52029</f>
+      <c r="I4" s="28">
+        <f t="shared" ref="I4:I18" si="1">F4*0.47971+H4*0.52029</f>
         <v>120.68</v>
       </c>
-      <c r="J3">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28">
         <v>120.68</v>
       </c>
-      <c r="K3">
+      <c r="L4" s="28">
         <v>241.36</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L17" si="2">K3/2</f>
+      <c r="M4" s="28">
+        <f t="shared" ref="M4:M18" si="2">L4/2</f>
         <v>120.68</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M17" si="3">J3*0.47971+L3*0.52029</f>
+      <c r="N4" s="29">
+        <f t="shared" ref="N4:N18" si="3">K4*0.47971+M4*0.52029</f>
         <v>120.68</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="4">H20</f>
+      <c r="R4" s="28">
+        <f t="shared" ref="R4:R8" si="4">I21</f>
         <v>156.79158695000001</v>
       </c>
-      <c r="R3">
-        <f>G73+Q3</f>
+      <c r="S4" s="28">
+        <f>H74+R4</f>
         <v>181.87394925000001</v>
       </c>
-      <c r="S3">
-        <f>M20+H73</f>
+      <c r="T4" s="29">
+        <f>N21+I74</f>
         <v>184.17394925000002</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E4">
+      <c r="F5" s="28">
         <v>190</v>
       </c>
-      <c r="F4">
+      <c r="G5" s="28">
         <v>380</v>
       </c>
-      <c r="G4">
+      <c r="H5" s="28">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="H4">
+      <c r="I5" s="28">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="J4">
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
         <v>190</v>
       </c>
-      <c r="K4">
+      <c r="L5" s="28">
         <v>380</v>
       </c>
-      <c r="L4">
+      <c r="M5" s="28">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="M4">
+      <c r="N5" s="29">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q4">
+      <c r="R5" s="28">
         <f t="shared" si="4"/>
         <v>234.65</v>
       </c>
-      <c r="R4">
-        <f>Q4+G72</f>
+      <c r="S5" s="28">
+        <f>R5+H73</f>
         <v>313.68288572</v>
       </c>
-      <c r="S4">
-        <f>M21+H72</f>
+      <c r="T5" s="29">
+        <f>N22+I73</f>
         <v>338.25288571999999</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E5">
+      <c r="F6" s="28">
         <v>11.7</v>
       </c>
-      <c r="F5">
+      <c r="G6" s="28">
         <v>23.3</v>
       </c>
-      <c r="G5">
+      <c r="H6" s="28">
         <f t="shared" si="0"/>
         <v>11.65</v>
       </c>
-      <c r="H5">
+      <c r="I6" s="28">
         <f t="shared" si="1"/>
         <v>11.673985500000001</v>
       </c>
-      <c r="J5">
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
         <v>11.7</v>
       </c>
-      <c r="K5">
+      <c r="L6" s="28">
         <v>23.3</v>
       </c>
-      <c r="L5">
+      <c r="M6" s="28">
         <f t="shared" si="2"/>
         <v>11.65</v>
       </c>
-      <c r="M5">
+      <c r="N6" s="29">
         <f t="shared" si="3"/>
         <v>11.673985500000001</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="Q5">
+      <c r="R6" s="28">
         <f t="shared" si="4"/>
         <v>1.1736576124999998</v>
       </c>
-      <c r="R5">
-        <f>Q5+G76</f>
+      <c r="S6" s="28">
+        <f>R6+H77</f>
         <v>5.9039541624999989</v>
       </c>
-      <c r="S5">
-        <f>M22+H76</f>
+      <c r="T6" s="29">
+        <f>N23+I77</f>
         <v>5.0013527124999992</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E6">
+      <c r="F7" s="28">
         <v>7.7</v>
       </c>
-      <c r="F6">
+      <c r="G7" s="28">
         <v>15.3</v>
       </c>
-      <c r="G6">
+      <c r="H7" s="28">
         <f t="shared" si="0"/>
         <v>7.65</v>
       </c>
-      <c r="H6">
+      <c r="I7" s="28">
         <f t="shared" si="1"/>
         <v>7.6739855000000006</v>
       </c>
-      <c r="J6">
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
         <v>7.7</v>
       </c>
-      <c r="K6">
+      <c r="L7" s="28">
         <v>15.3</v>
       </c>
-      <c r="L6">
+      <c r="M7" s="28">
         <f t="shared" si="2"/>
         <v>7.65</v>
       </c>
-      <c r="M6">
+      <c r="N7" s="29">
         <f t="shared" si="3"/>
         <v>7.6739855000000006</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Q6">
+      <c r="R7" s="28">
         <f t="shared" si="4"/>
         <v>106.875</v>
       </c>
-      <c r="R6">
-        <f>Q6</f>
+      <c r="S7" s="28">
+        <f>R7</f>
         <v>106.875</v>
       </c>
-      <c r="S6">
-        <f t="shared" ref="S6:S7" si="5">M23</f>
+      <c r="T7" s="29">
+        <f t="shared" ref="T7:T8" si="5">N24</f>
         <v>106.875</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E7">
+      <c r="F8" s="28">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="G8" s="28">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="H8" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="I8" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="J8" s="28"/>
+      <c r="K8" s="28">
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="L8" s="28">
         <v>4</v>
       </c>
-      <c r="L7">
+      <c r="M8" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M7">
+      <c r="N8" s="29">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Q7">
+      <c r="R8" s="28">
         <f t="shared" si="4"/>
         <v>11.114999999999998</v>
       </c>
-      <c r="R7">
-        <f>Q7</f>
+      <c r="S8" s="28">
+        <f>R8</f>
         <v>11.114999999999998</v>
       </c>
-      <c r="S7">
+      <c r="T8" s="29">
         <f t="shared" si="5"/>
         <v>11.114999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E8">
+      <c r="F9" s="28">
         <v>3573</v>
       </c>
-      <c r="F8">
+      <c r="G9" s="28">
         <v>7099</v>
       </c>
-      <c r="G8">
+      <c r="H9" s="28">
         <f t="shared" si="0"/>
         <v>3549.5</v>
       </c>
-      <c r="H8">
+      <c r="I9" s="28">
         <f t="shared" si="1"/>
         <v>3560.773185</v>
       </c>
-      <c r="J8">
+      <c r="J9" s="28"/>
+      <c r="K9" s="28">
         <v>3573</v>
       </c>
-      <c r="K8">
+      <c r="L9" s="28">
         <v>7099</v>
       </c>
-      <c r="L8">
+      <c r="M9" s="28">
         <f t="shared" si="2"/>
         <v>3549.5</v>
       </c>
-      <c r="M8">
+      <c r="N9" s="29">
         <f t="shared" si="3"/>
         <v>3560.773185</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="R8">
-        <f>G70</f>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28">
+        <f>H71</f>
         <v>4.9537388</v>
       </c>
-      <c r="S8">
-        <f>H70</f>
+      <c r="T9" s="29">
+        <f>I71</f>
         <v>5.0787388</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E9">
+      <c r="F10" s="28">
         <v>375</v>
       </c>
-      <c r="F9">
+      <c r="G10" s="28">
         <v>750</v>
       </c>
-      <c r="G9">
+      <c r="H10" s="28">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="H9">
+      <c r="I10" s="28">
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
-      <c r="J9">
+      <c r="J10" s="28"/>
+      <c r="K10" s="28">
         <v>375</v>
       </c>
-      <c r="K9">
+      <c r="L10" s="28">
         <v>750</v>
       </c>
-      <c r="L9">
+      <c r="M10" s="28">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="M9">
+      <c r="N10" s="29">
         <f t="shared" si="3"/>
         <v>375</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="R9">
-        <f>G71</f>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28">
+        <f>H72</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="S9">
-        <f>H71</f>
+      <c r="T10" s="29">
+        <f>I72</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E10">
+      <c r="F11" s="28">
         <v>23.4</v>
       </c>
-      <c r="F10">
+      <c r="G11" s="28">
         <v>46.8</v>
       </c>
-      <c r="G10">
+      <c r="H11" s="28">
         <f t="shared" si="0"/>
         <v>23.4</v>
       </c>
-      <c r="H10">
+      <c r="I11" s="28">
         <f t="shared" si="1"/>
         <v>23.4</v>
       </c>
-      <c r="J10">
+      <c r="J11" s="28"/>
+      <c r="K11" s="28">
         <v>23.4</v>
       </c>
-      <c r="K10">
+      <c r="L11" s="28">
         <v>46.8</v>
       </c>
-      <c r="L10">
+      <c r="M11" s="28">
         <f t="shared" si="2"/>
         <v>23.4</v>
       </c>
-      <c r="M10">
+      <c r="N11" s="29">
         <f t="shared" si="3"/>
         <v>23.4</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q11" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="R10">
-        <f>G75</f>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28">
+        <f>H76</f>
         <v>1.4750000000000001</v>
       </c>
-      <c r="S10">
-        <f>H75</f>
+      <c r="T11" s="29">
+        <f>I76</f>
         <v>1.4750000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E11">
+      <c r="F12" s="28">
         <v>43.2</v>
       </c>
-      <c r="F11">
+      <c r="G12" s="28">
         <v>86.4</v>
       </c>
-      <c r="G11">
+      <c r="H12" s="28">
         <f t="shared" si="0"/>
         <v>43.2</v>
       </c>
-      <c r="H11">
+      <c r="I12" s="28">
         <f t="shared" si="1"/>
         <v>43.2</v>
       </c>
-      <c r="J11">
+      <c r="J12" s="28"/>
+      <c r="K12" s="28">
         <v>43.2</v>
       </c>
-      <c r="K11">
+      <c r="L12" s="28">
         <v>86.4</v>
       </c>
-      <c r="L11">
+      <c r="M12" s="28">
         <f t="shared" si="2"/>
         <v>43.2</v>
       </c>
-      <c r="M11">
+      <c r="N12" s="29">
         <f t="shared" si="3"/>
         <v>43.2</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q12" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="R11">
-        <f>G74</f>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32">
+        <f>H75</f>
         <v>1.75</v>
       </c>
-      <c r="S11">
-        <f>H74</f>
+      <c r="T12" s="33">
+        <f>I75</f>
         <v>2.15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E13" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E12">
+      <c r="F13" s="28">
         <v>0.4</v>
       </c>
-      <c r="F12">
+      <c r="G13" s="28">
         <v>0.9</v>
       </c>
-      <c r="G12">
+      <c r="H13" s="28">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="H12">
+      <c r="I13" s="28">
         <f t="shared" si="1"/>
         <v>0.42601450000000007</v>
       </c>
-      <c r="J12">
+      <c r="J13" s="28"/>
+      <c r="K13" s="28">
         <v>0.4</v>
       </c>
-      <c r="K12">
+      <c r="L13" s="28">
         <v>0.9</v>
       </c>
-      <c r="L12">
+      <c r="M13" s="28">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
-      <c r="M12">
+      <c r="N13" s="29">
         <f t="shared" si="3"/>
         <v>0.42601450000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E13">
+      <c r="F14" s="28">
         <v>3030</v>
       </c>
-      <c r="F13">
+      <c r="G14" s="28">
         <v>6141</v>
       </c>
-      <c r="G13">
+      <c r="H14" s="28">
         <f t="shared" si="0"/>
         <v>3070.5</v>
       </c>
-      <c r="H13">
+      <c r="I14" s="28">
         <f t="shared" si="1"/>
         <v>3051.0717450000002</v>
       </c>
-      <c r="J13">
+      <c r="J14" s="28"/>
+      <c r="K14" s="28">
         <v>3030</v>
       </c>
-      <c r="K13">
+      <c r="L14" s="28">
         <v>6141</v>
       </c>
-      <c r="L13">
+      <c r="M14" s="28">
         <f t="shared" si="2"/>
         <v>3070.5</v>
       </c>
-      <c r="M13">
+      <c r="N14" s="29">
         <f t="shared" si="3"/>
         <v>3051.0717450000002</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E14">
+      <c r="F15" s="28">
         <v>118.9</v>
       </c>
-      <c r="F14">
+      <c r="G15" s="28">
         <v>237.8</v>
       </c>
-      <c r="G14">
+      <c r="H15" s="28">
         <f t="shared" si="0"/>
         <v>118.9</v>
       </c>
-      <c r="H14">
+      <c r="I15" s="28">
         <f t="shared" si="1"/>
         <v>118.9</v>
       </c>
-      <c r="J14">
+      <c r="J15" s="28"/>
+      <c r="K15" s="28">
         <v>118.9</v>
       </c>
-      <c r="K14">
+      <c r="L15" s="28">
         <v>237.8</v>
       </c>
-      <c r="L14">
+      <c r="M15" s="28">
         <f t="shared" si="2"/>
         <v>118.9</v>
       </c>
-      <c r="M14">
+      <c r="N15" s="29">
         <f t="shared" si="3"/>
         <v>118.9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E16" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E15">
+      <c r="F16" s="28">
         <v>9.1</v>
       </c>
-      <c r="F15">
+      <c r="G16" s="28">
         <v>18.3</v>
       </c>
-      <c r="G15">
+      <c r="H16" s="28">
         <f t="shared" si="0"/>
         <v>9.15</v>
       </c>
-      <c r="H15">
+      <c r="I16" s="28">
         <f t="shared" si="1"/>
         <v>9.1260145000000001</v>
       </c>
-      <c r="J15">
+      <c r="J16" s="28"/>
+      <c r="K16" s="28">
         <v>9.1</v>
       </c>
-      <c r="K15">
+      <c r="L16" s="28">
         <v>18.3</v>
       </c>
-      <c r="L15">
+      <c r="M16" s="28">
         <f t="shared" si="2"/>
         <v>9.15</v>
       </c>
-      <c r="M15">
+      <c r="N16" s="29">
         <f t="shared" si="3"/>
         <v>9.1260145000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E16">
+      <c r="F17" s="28">
         <v>0.4</v>
       </c>
-      <c r="F16">
+      <c r="G17" s="28">
         <v>0.9</v>
       </c>
-      <c r="G16">
+      <c r="H17" s="28">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="H16">
+      <c r="I17" s="28">
         <f t="shared" si="1"/>
         <v>0.42601450000000007</v>
       </c>
-      <c r="J16">
+      <c r="J17" s="28"/>
+      <c r="K17" s="28">
         <v>0.4</v>
       </c>
-      <c r="K16">
+      <c r="L17" s="28">
         <v>0.9</v>
       </c>
-      <c r="L16">
+      <c r="M17" s="28">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
-      <c r="M16">
+      <c r="N17" s="29">
         <f t="shared" si="3"/>
         <v>0.42601450000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E17">
+      <c r="F18" s="28">
         <v>2319</v>
       </c>
-      <c r="F17">
+      <c r="G18" s="28">
         <v>4907</v>
       </c>
-      <c r="G17">
+      <c r="H18" s="28">
         <f t="shared" si="0"/>
         <v>2453.5</v>
       </c>
-      <c r="H17">
+      <c r="I18" s="28">
         <f t="shared" si="1"/>
         <v>2388.9790050000001</v>
       </c>
-      <c r="J17">
+      <c r="J18" s="28"/>
+      <c r="K18" s="28">
         <v>2319</v>
       </c>
-      <c r="K17">
+      <c r="L18" s="28">
         <v>4907</v>
       </c>
-      <c r="L17">
+      <c r="M18" s="28">
         <f t="shared" si="2"/>
         <v>2453.5</v>
       </c>
-      <c r="M17">
+      <c r="N18" s="29">
         <f t="shared" si="3"/>
         <v>2388.9790050000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H19">
-        <f>H2+H8*0.475+H13*0.475+H17*0.05</f>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28">
+        <f>I3+I9*0.475+I14*0.475+I18*0.05</f>
         <v>10011.078012</v>
       </c>
-      <c r="M19">
-        <f t="shared" ref="M19" si="6">M2+M8*0.475+M13*0.475+M17*0.05</f>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29">
+        <f t="shared" ref="N20" si="6">N3+N9*0.475+N14*0.475+N18*0.05</f>
         <v>11755.761931999999</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E21" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H20">
-        <f>H3+H5*0.475+H6*0.475+H11*0.475+H14*0.05+H15*0.05</f>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28">
+        <f>I4+I6*0.475+I7*0.475+I12*0.475+I15*0.05+I16*0.05</f>
         <v>156.79158695000001</v>
       </c>
-      <c r="M20">
-        <f t="shared" ref="M20" si="7">M3+M5*0.475+M6*0.475+M11*0.475+M14*0.05+M15*0.05</f>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29">
+        <f t="shared" ref="N21" si="7">N4+N6*0.475+N7*0.475+N12*0.475+N15*0.05+N16*0.05</f>
         <v>156.79158695000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H21">
-        <f>H4*0.475*2.6</f>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28">
+        <f>I5*0.475*2.6</f>
         <v>234.65</v>
       </c>
-      <c r="M21">
-        <f t="shared" ref="M21" si="8">M4*0.475*2.6</f>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29">
+        <f t="shared" ref="N22" si="8">N5*0.475*2.6</f>
         <v>234.65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E23" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H22">
-        <f>H7*0.475+H12*0.475+H16*0.05</f>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28">
+        <f>I8*0.475+I13*0.475+I17*0.05</f>
         <v>1.1736576124999998</v>
       </c>
-      <c r="M22">
-        <f t="shared" ref="M22" si="9">M7*0.475+M12*0.475+M16*0.05</f>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29">
+        <f t="shared" ref="N23" si="9">N8*0.475+N13*0.475+N17*0.05</f>
         <v>1.1736576124999998</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" s="28"/>
+      <c r="D24" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H23">
-        <f>H9*0.475*0.6</f>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28">
+        <f>I10*0.475*0.6</f>
         <v>106.875</v>
       </c>
-      <c r="M23">
-        <f t="shared" ref="M23" si="10">M9*0.475*0.6</f>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="29">
+        <f t="shared" ref="N24" si="10">N10*0.475*0.6</f>
         <v>106.875</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H24">
-        <f>H10*0.475</f>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28">
+        <f>I11*0.475</f>
         <v>11.114999999999998</v>
       </c>
-      <c r="M24">
-        <f t="shared" ref="M24" si="11">M10*0.475</f>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="29">
+        <f t="shared" ref="N25" si="11">N11*0.475</f>
         <v>11.114999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="29"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C30" s="28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D31" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D30">
+      <c r="E31" s="28">
         <v>31.633333333333333</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C32" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D32" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D31">
+      <c r="E32" s="28">
         <v>4.2233333333333345</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D33" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D32">
+      <c r="E33" s="28">
         <v>82.24666666666667</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C35" s="28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="29"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C36" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D36" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D35">
+      <c r="E36" s="28">
         <v>42.410526315789468</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="29"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D37" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D36">
+      <c r="E37" s="28">
         <v>110.26736842105262</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="29"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C38" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D38" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D37">
+      <c r="E38" s="28">
         <v>3.2428571428571429</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="27"/>
+      <c r="C41" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D41" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E41" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F41" s="28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C42" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D42" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D41">
+      <c r="E42" s="28">
         <v>1.8</v>
       </c>
-      <c r="E41">
+      <c r="F42" s="28">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G41">
-        <f>D41/2</f>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28">
+        <f>E42/2</f>
         <v>0.9</v>
       </c>
-      <c r="H41">
-        <f>E41/2</f>
+      <c r="I42" s="28">
+        <f>F42/2</f>
         <v>1.0249999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="29"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C43" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D43" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D42">
+      <c r="E43" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E42">
+      <c r="F43" s="28">
         <v>1.9</v>
       </c>
-      <c r="G42">
-        <f t="shared" ref="G42:G55" si="12">D42/2</f>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28">
+        <f t="shared" ref="H43:H56" si="12">E43/2</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H42">
-        <f t="shared" ref="H42:H55" si="13">E42/2</f>
+      <c r="I43" s="28">
+        <f t="shared" ref="I43:I56" si="13">F43/2</f>
         <v>0.95</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="29"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C44" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D44" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E43">
+      <c r="E44" s="28"/>
+      <c r="F44" s="28">
         <v>38.200000000000003</v>
       </c>
-      <c r="G43">
+      <c r="G44" s="28"/>
+      <c r="H44" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H43">
+      <c r="I44" s="28">
         <f t="shared" si="13"/>
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C45" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D45" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E44">
+      <c r="E45" s="28"/>
+      <c r="F45" s="28">
         <v>51</v>
       </c>
-      <c r="G44">
+      <c r="G45" s="28"/>
+      <c r="H45" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H44">
+      <c r="I45" s="28">
         <f t="shared" si="13"/>
         <v>25.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="29"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C46" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D46" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E45">
+      <c r="E46" s="28"/>
+      <c r="F46" s="28">
         <v>4.3</v>
       </c>
-      <c r="G45">
+      <c r="G46" s="28"/>
+      <c r="H46" s="28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H45">
+      <c r="I46" s="28">
         <f t="shared" si="13"/>
         <v>2.15</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="29"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C47" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D47" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D46">
+      <c r="E47" s="28">
         <v>31.1</v>
       </c>
-      <c r="G46">
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28">
         <f t="shared" si="12"/>
         <v>15.55</v>
       </c>
-      <c r="H46">
+      <c r="I47" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="29"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C48" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D48" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D47">
+      <c r="E48" s="28">
         <v>41.4</v>
       </c>
-      <c r="G47">
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28">
         <f t="shared" si="12"/>
         <v>20.7</v>
       </c>
-      <c r="H47">
+      <c r="I48" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="29"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C49" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D49" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D48">
+      <c r="E49" s="28">
         <v>3.5</v>
       </c>
-      <c r="G48">
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28">
         <f t="shared" si="12"/>
         <v>1.75</v>
       </c>
-      <c r="H48">
+      <c r="I49" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="29"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C50" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D50" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D49">
+      <c r="E50" s="28">
         <v>7.5</v>
       </c>
-      <c r="G49">
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28">
         <f t="shared" si="12"/>
         <v>3.75</v>
       </c>
-      <c r="H49">
+      <c r="I50" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C51" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D51" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D50">
+      <c r="E51" s="28">
         <v>51.400000000000006</v>
       </c>
-      <c r="G50">
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28">
         <f t="shared" si="12"/>
         <v>25.700000000000003</v>
       </c>
-      <c r="H50">
+      <c r="I51" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="29"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C52" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D52" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D51">
+      <c r="E52" s="28">
         <v>3.5</v>
       </c>
-      <c r="G51">
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28">
         <f t="shared" si="12"/>
         <v>1.75</v>
       </c>
-      <c r="H51">
+      <c r="I52" s="28">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="29"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C53" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D53" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D52">
+      <c r="E53" s="28">
         <v>1.18</v>
       </c>
-      <c r="E52">
+      <c r="F53" s="28">
         <v>1.18</v>
       </c>
-      <c r="G52">
+      <c r="G53" s="28"/>
+      <c r="H53" s="28">
         <f t="shared" si="12"/>
         <v>0.59</v>
       </c>
-      <c r="H52">
+      <c r="I53" s="28">
         <f t="shared" si="13"/>
         <v>0.59</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="29"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C54" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D54" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D53">
+      <c r="E54" s="28">
         <v>0.72</v>
       </c>
-      <c r="E53">
+      <c r="F54" s="28">
         <v>0.72</v>
       </c>
-      <c r="G53">
+      <c r="G54" s="28"/>
+      <c r="H54" s="28">
         <f t="shared" si="12"/>
         <v>0.36</v>
       </c>
-      <c r="H53">
+      <c r="I54" s="28">
         <f t="shared" si="13"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="29"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C55" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D55" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D54">
+      <c r="E55" s="28">
         <v>2.95</v>
       </c>
-      <c r="E54">
+      <c r="F55" s="28">
         <v>2.95</v>
       </c>
-      <c r="G54">
+      <c r="G55" s="28"/>
+      <c r="H55" s="28">
         <f t="shared" si="12"/>
         <v>1.4750000000000001</v>
       </c>
-      <c r="H54">
+      <c r="I55" s="28">
         <f t="shared" si="13"/>
         <v>1.4750000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="29"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C56" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D56" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D55">
+      <c r="E56" s="28">
         <v>0.26</v>
       </c>
-      <c r="E55">
+      <c r="F56" s="28">
         <v>0.26</v>
       </c>
-      <c r="G55">
+      <c r="G56" s="28"/>
+      <c r="H56" s="28">
         <f t="shared" si="12"/>
         <v>0.13</v>
       </c>
-      <c r="H55">
+      <c r="I56" s="28">
         <f t="shared" si="13"/>
         <v>0.13</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="29"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="29"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" s="28"/>
+      <c r="D58" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E58" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F58" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="29"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C59" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D59" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D58">
+      <c r="E59" s="28">
         <v>0.42</v>
       </c>
-      <c r="E58">
+      <c r="F59" s="28">
         <v>0.7</v>
       </c>
-      <c r="F58">
-        <f>E58/2</f>
+      <c r="G59" s="28">
+        <f>F59/2</f>
         <v>0.35</v>
       </c>
-      <c r="G58">
-        <f>D58*0.47971+F58*0.52029</f>
+      <c r="H59" s="28">
+        <f>E59*0.47971+G59*0.52029</f>
         <v>0.38357969999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="29"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C60" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D60" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D59">
+      <c r="E60" s="28">
         <v>0.8</v>
       </c>
-      <c r="E59">
+      <c r="F60" s="28">
         <v>1.34</v>
       </c>
-      <c r="F59">
-        <f t="shared" ref="F59:F64" si="14">E59/2</f>
+      <c r="G60" s="28">
+        <f t="shared" ref="G60:G65" si="14">F60/2</f>
         <v>0.67</v>
       </c>
-      <c r="G59">
-        <f t="shared" ref="G59:G64" si="15">D59*0.47971+F59*0.52029</f>
+      <c r="H60" s="28">
+        <f t="shared" ref="H60:H65" si="15">E60*0.47971+G60*0.52029</f>
         <v>0.73236230000000013</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="29"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C61" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D61" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D60">
+      <c r="E61" s="28">
         <v>3.46</v>
       </c>
-      <c r="E60">
+      <c r="F61" s="28">
         <v>2.35</v>
       </c>
-      <c r="F60">
+      <c r="G61" s="28">
         <f t="shared" si="14"/>
         <v>1.175</v>
       </c>
-      <c r="G60">
+      <c r="H61" s="28">
         <f t="shared" si="15"/>
         <v>2.2711373500000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="29"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C62" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D62" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D61">
+      <c r="E62" s="28">
         <v>5.77</v>
       </c>
-      <c r="E61">
+      <c r="F62" s="28">
         <v>3.92</v>
       </c>
-      <c r="F61">
+      <c r="G62" s="28">
         <f t="shared" si="14"/>
         <v>1.96</v>
       </c>
-      <c r="G61">
+      <c r="H62" s="28">
         <f t="shared" si="15"/>
         <v>3.7876950999999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="29"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C63" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D63" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D62">
+      <c r="E63" s="28">
         <v>50</v>
       </c>
-      <c r="E62">
+      <c r="F63" s="28">
         <v>83.3</v>
       </c>
-      <c r="F62">
+      <c r="G63" s="28">
         <f t="shared" si="14"/>
         <v>41.65</v>
       </c>
-      <c r="G62">
+      <c r="H63" s="28">
         <f t="shared" si="15"/>
         <v>45.655578500000004</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="29"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C64" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D64" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D63">
+      <c r="E64" s="28">
         <v>1.39</v>
       </c>
-      <c r="E63">
+      <c r="F64" s="28">
         <v>2.79</v>
       </c>
-      <c r="F63">
+      <c r="G64" s="28">
         <f t="shared" si="14"/>
         <v>1.395</v>
       </c>
-      <c r="G63">
+      <c r="H64" s="28">
         <f t="shared" si="15"/>
         <v>1.3926014500000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="29"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C65" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D65" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D64">
+      <c r="E65" s="28">
         <v>0.94</v>
       </c>
-      <c r="E64">
+      <c r="F65" s="28">
         <v>1.89</v>
       </c>
-      <c r="F64">
+      <c r="G65" s="28">
         <f t="shared" si="14"/>
         <v>0.94499999999999995</v>
       </c>
-      <c r="G64">
+      <c r="H65" s="28">
         <f t="shared" si="15"/>
         <v>0.94260144999999995</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="29"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C66" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D66" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D65">
+      <c r="E66" s="28">
         <v>7.16</v>
       </c>
-      <c r="G65">
-        <f>D65</f>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28">
+        <f>E66</f>
         <v>7.16</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="29"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C67" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D67" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D66">
+      <c r="E67" s="28">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G66">
-        <f t="shared" ref="G66:G68" si="16">D66</f>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28">
+        <f t="shared" ref="H67:H69" si="16">E67</f>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="29"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C68" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D68" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D67">
+      <c r="E68" s="28">
         <v>0.03</v>
       </c>
-      <c r="G67">
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28">
         <f t="shared" si="16"/>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="29"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C69" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D69" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D68">
+      <c r="E69" s="28">
         <v>0.04</v>
       </c>
-      <c r="G68">
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28">
         <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="29"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="29"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" s="28"/>
+      <c r="D71" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E71" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G70">
-        <f>G41+G53+G60+G63+G67</f>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28">
+        <f>H42+H54+H61+H64+H68</f>
         <v>4.9537388</v>
       </c>
-      <c r="H70">
-        <f>H41+H53+G60+G63+G67</f>
+      <c r="I71" s="28">
+        <f>I42+I54+H61+H64+H68</f>
         <v>5.0787388</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="29"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" s="28"/>
+      <c r="D72" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E72" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G71">
-        <f>G42</f>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28">
+        <f>H43</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H71">
-        <f>H42</f>
+      <c r="I72" s="28">
+        <f>I43</f>
         <v>0.95</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="29"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" s="28"/>
+      <c r="D73" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E73" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G72">
-        <f>((((G46+G49)/2)+G58)*2.6)+G55+G62+G65</f>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28">
+        <f>((((H47+H50)/2)+H59)*2.6)+H56+H63+H66</f>
         <v>79.032885719999996</v>
       </c>
-      <c r="H72">
-        <f>H43*2.6+H55+G58*2.6+G62+G65</f>
+      <c r="I73" s="28">
+        <f>I44*2.6+I56+H59*2.6+H63+H66</f>
         <v>103.60288572000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="29"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" s="28"/>
+      <c r="D74" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E74" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G73">
-        <f>((G47+G50)/2)+G52+G59+G66</f>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28">
+        <f>((H48+H51)/2)+H53+H60+H67</f>
         <v>25.082362300000003</v>
       </c>
-      <c r="H73">
-        <f>H44+H52+G59+G66</f>
+      <c r="I74" s="28">
+        <f>I45+I53+H60+H67</f>
         <v>27.3823623</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="29"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" s="28"/>
+      <c r="D75" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E75" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G74">
-        <f>((G48+G51)/2)</f>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28">
+        <f>((H49+H52)/2)</f>
         <v>1.75</v>
       </c>
-      <c r="H74">
-        <f>H45</f>
+      <c r="I75" s="28">
+        <f>I46</f>
         <v>2.15</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="29"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" s="28"/>
+      <c r="D76" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E76" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G75">
-        <f>G54</f>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28">
+        <f>H55</f>
         <v>1.4750000000000001</v>
       </c>
-      <c r="H75">
-        <f>H54</f>
+      <c r="I76" s="28">
+        <f>I55</f>
         <v>1.4750000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="29"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" s="28"/>
+      <c r="D77" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E77" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G76">
-        <f>G61+G64</f>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28">
+        <f>H62+H65</f>
         <v>4.7302965499999994</v>
       </c>
-      <c r="H76">
-        <f>G61+G68</f>
+      <c r="I77" s="28">
+        <f>H62+H69</f>
         <v>3.8276950999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="29"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="29"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="29"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C80" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D80" s="28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="29"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C81" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D81" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D80">
+      <c r="E81" s="28">
         <v>25075</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="29"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="27"/>
+      <c r="C82" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D82" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D81">
+      <c r="E82" s="28">
         <v>1177</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="29"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C83" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D83" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D82">
+      <c r="E83" s="28">
         <v>10423</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="29"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="27"/>
+      <c r="C84" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D84" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D83">
+      <c r="E84" s="28">
         <v>477</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="29"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C85" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D85" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D84">
+      <c r="E85" s="28">
         <v>5358</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="29"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="27"/>
+      <c r="C86" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D86" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D85">
+      <c r="E86" s="28">
         <v>238</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="29"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C87" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D87" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D86">
+      <c r="E87" s="28">
         <v>1606</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="29"/>
+    </row>
+    <row r="88" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="31"/>
+      <c r="C88" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D88" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D87">
+      <c r="E88" s="32">
         <v>70</v>
       </c>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="33"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="B1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>